--- a/Gantt Chart.xlsx
+++ b/Gantt Chart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sajanrajani/Library/Mobile Documents/com~apple~CloudDocs/Documents/Year 3 - Engineering/Waterscope/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FFB6CF6-27F5-4743-ADF5-FFC881D22A5E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A047128-80B8-424A-802F-A4ED9D9BF0D8}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14460" xr2:uid="{B7718D2C-2DCC-FF44-9AD4-11ED5D5658DD}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14460" xr2:uid="{B7718D2C-2DCC-FF44-9AD4-11ED5D5658DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="47">
   <si>
     <t>Day Number</t>
   </si>
@@ -39,27 +39,12 @@
     <t>Project presentations</t>
   </si>
   <si>
-    <t>Prepare Project Proposal</t>
-  </si>
-  <si>
-    <t>Interim Presentaons</t>
-  </si>
-  <si>
-    <t>Prepare Project Presentation</t>
-  </si>
-  <si>
     <t>Meet with Waterscope team</t>
   </si>
   <si>
-    <t>Finalise focus of project</t>
-  </si>
-  <si>
     <t>Order Parts</t>
   </si>
   <si>
-    <t>Complete early prototype</t>
-  </si>
-  <si>
     <t>M</t>
   </si>
   <si>
@@ -75,25 +60,112 @@
     <t>S</t>
   </si>
   <si>
-    <t>Compute list of parts required</t>
-  </si>
-  <si>
-    <t>Identify training needed?</t>
-  </si>
-  <si>
     <t>Website Design</t>
   </si>
   <si>
-    <t>Technical Presentation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Statemnt on Unicef Principles </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Complete individual aspects of project proposal </t>
-  </si>
-  <si>
     <t>?</t>
+  </si>
+  <si>
+    <t>Ensure training programs done for respective skills</t>
+  </si>
+  <si>
+    <t>Revise Contingency plan in light of feedback</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gantt Chart for Waterscope Project </t>
+  </si>
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
+    <t>Sajan</t>
+  </si>
+  <si>
+    <t>Aaron</t>
+  </si>
+  <si>
+    <t>Katie</t>
+  </si>
+  <si>
+    <t>Nathan</t>
+  </si>
+  <si>
+    <t>Monica</t>
+  </si>
+  <si>
+    <t>Unassigned/All</t>
+  </si>
+  <si>
+    <t>?!</t>
+  </si>
+  <si>
+    <t>Interim Presentation</t>
+  </si>
+  <si>
+    <t>Technical Report</t>
+  </si>
+  <si>
+    <t>Project Management Plan + Gantt Chart</t>
+  </si>
+  <si>
+    <t>Overview, Context and Enginerring Approach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ideas and Modelling to finalise project focus </t>
+  </si>
+  <si>
+    <t>Costings + list of parts required</t>
+  </si>
+  <si>
+    <t>Collate/Review and Finalise Project Proposal</t>
+  </si>
+  <si>
+    <t>Risk assessment and contingency plan</t>
+  </si>
+  <si>
+    <t>Strengths/Weaknesses/ source training expertise</t>
+  </si>
+  <si>
+    <t>Complete prototype and check feasibility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write team members' personal and technical development </t>
+  </si>
+  <si>
+    <t>Prepare Interim Presentaons</t>
+  </si>
+  <si>
+    <t>Statement on Unicef Principles/how our project fits</t>
+  </si>
+  <si>
+    <t>Technical Presentation on project</t>
+  </si>
+  <si>
+    <t>Web Design and completion</t>
+  </si>
+  <si>
+    <t>Reflect (Strengths and weaknesses)</t>
+  </si>
+  <si>
+    <t>Short look at Unicef Principles?</t>
+  </si>
+  <si>
+    <t>?!?</t>
+  </si>
+  <si>
+    <t>cry.</t>
+  </si>
+  <si>
+    <t>Decide who is presenting what parts</t>
+  </si>
+  <si>
+    <t>Start preparing presentation</t>
+  </si>
+  <si>
+    <t>Collate ideas and feedback with problems and etc</t>
+  </si>
+  <si>
+    <t>Project Presentation/Reports</t>
   </si>
 </sst>
 </file>
@@ -101,9 +173,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="dd/mm/yy;@"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -119,8 +191,46 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -133,8 +243,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -142,18 +282,114 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+      <alignment horizontal="center" vertical="top" textRotation="90"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -468,336 +704,594 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00B0E456-EB46-4540-9E5C-44DAA5756766}">
-  <dimension ref="A5:Z32"/>
+  <dimension ref="A1:Z41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="42" customWidth="1"/>
+    <col min="1" max="1" width="42" style="1" customWidth="1"/>
+    <col min="2" max="7" width="10.83203125" style="1"/>
+    <col min="8" max="8" width="10.83203125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="1" spans="1:21" ht="21">
+      <c r="A1" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="3"/>
+      <c r="I1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="4"/>
+      <c r="K1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="5"/>
+      <c r="M1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="6"/>
+      <c r="O1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" s="8"/>
+    </row>
+    <row r="2" spans="1:21" ht="20" thickBot="1">
+      <c r="A2" s="19"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+    </row>
+    <row r="3" spans="1:21" s="11" customFormat="1" ht="20" thickBot="1">
+      <c r="A3" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="4"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="B3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" s="11" customFormat="1" ht="20" thickBot="1">
+      <c r="A4" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+    </row>
+    <row r="5" spans="1:21" s="13" customFormat="1" ht="19">
+      <c r="A5" s="21"/>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="9"/>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="A7" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="A8" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="9"/>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="A9" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="9"/>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="A10" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="9"/>
+    </row>
+    <row r="11" spans="1:21">
+      <c r="A11" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="9"/>
+    </row>
+    <row r="12" spans="1:21">
+      <c r="A12" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="9"/>
+    </row>
+    <row r="13" spans="1:21">
+      <c r="A13" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="9"/>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="A14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="D14" s="8"/>
+    </row>
+    <row r="15" spans="1:21">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+    </row>
+    <row r="16" spans="1:21" s="9" customFormat="1" ht="20" thickBot="1">
+      <c r="A16" s="23"/>
+    </row>
+    <row r="17" spans="1:26" s="11" customFormat="1" ht="20" thickBot="1">
+      <c r="A17" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="16"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="16"/>
+    </row>
+    <row r="18" spans="1:26" ht="19">
+      <c r="A18" s="19"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+    </row>
+    <row r="19" spans="1:26">
+      <c r="A19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="8"/>
+    </row>
+    <row r="20" spans="1:26">
+      <c r="A20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+    </row>
+    <row r="21" spans="1:26">
+      <c r="A21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+    </row>
+    <row r="22" spans="1:26">
+      <c r="A22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+    </row>
+    <row r="23" spans="1:26">
+      <c r="A23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+    </row>
+    <row r="24" spans="1:26">
+      <c r="A24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="9"/>
+    </row>
+    <row r="25" spans="1:26" s="9" customFormat="1" ht="20" thickBot="1">
+      <c r="A25" s="23"/>
+    </row>
+    <row r="26" spans="1:26" s="11" customFormat="1" ht="20" thickBot="1">
+      <c r="A26" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="12"/>
+      <c r="S26" s="12"/>
+      <c r="T26" s="12"/>
+      <c r="U26" s="12"/>
+      <c r="V26" s="12"/>
+      <c r="W26" s="12"/>
+      <c r="X26" s="12"/>
+      <c r="Y26" s="12"/>
+      <c r="Z26" s="16"/>
+    </row>
+    <row r="27" spans="1:26" ht="19">
+      <c r="A27" s="19"/>
+    </row>
+    <row r="28" spans="1:26">
+      <c r="A28" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="8"/>
+    </row>
+    <row r="29" spans="1:26">
+      <c r="A29" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q29" s="8"/>
+      <c r="R29" s="8"/>
+      <c r="S29" s="8"/>
+      <c r="T29" s="8"/>
+      <c r="U29" s="8"/>
+      <c r="V29" s="8"/>
+      <c r="W29" s="8"/>
+      <c r="X29" s="8"/>
+      <c r="Y29" s="8"/>
+    </row>
+    <row r="30" spans="1:26">
+      <c r="A30" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="8"/>
+      <c r="S30" s="8"/>
+      <c r="T30" s="8"/>
+      <c r="U30" s="8"/>
+      <c r="V30" s="8"/>
+      <c r="W30" s="8"/>
+      <c r="X30" s="8"/>
+      <c r="Y30" s="8"/>
+    </row>
+    <row r="31" spans="1:26">
+      <c r="A31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="Q31" s="8"/>
+      <c r="R31" s="8"/>
+      <c r="S31" s="8"/>
+      <c r="T31" s="8"/>
+      <c r="U31" s="8"/>
+      <c r="V31" s="8"/>
+      <c r="W31" s="8"/>
+      <c r="X31" s="8"/>
+      <c r="Y31" s="8"/>
+    </row>
+    <row r="32" spans="1:26">
+      <c r="A32" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="Q32" s="8"/>
+      <c r="R32" s="8"/>
+      <c r="S32" s="8"/>
+      <c r="T32" s="8"/>
+      <c r="U32" s="8"/>
+      <c r="V32" s="8"/>
+      <c r="W32" s="8"/>
+      <c r="X32" s="8"/>
+      <c r="Y32" s="8"/>
+    </row>
+    <row r="33" spans="1:26">
+      <c r="A33" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q33" s="8"/>
+      <c r="R33" s="8"/>
+      <c r="S33" s="8"/>
+      <c r="T33" s="8"/>
+      <c r="U33" s="8"/>
+      <c r="V33" s="8"/>
+      <c r="W33" s="8"/>
+      <c r="X33" s="8"/>
+      <c r="Y33" s="8"/>
+    </row>
+    <row r="34" spans="1:26">
+      <c r="A34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q34" s="8"/>
+      <c r="R34" s="8"/>
+      <c r="S34" s="8"/>
+      <c r="T34" s="8"/>
+      <c r="U34" s="8"/>
+      <c r="V34" s="8"/>
+      <c r="W34" s="8"/>
+      <c r="X34" s="8"/>
+      <c r="Y34" s="8"/>
+    </row>
+    <row r="35" spans="1:26" s="14" customFormat="1" ht="19">
+      <c r="A35" s="22"/>
+      <c r="B35" s="14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" s="14" customFormat="1" ht="19">
+      <c r="A36" s="22"/>
+      <c r="B36" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="4"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="E36" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="F36" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="H36" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="I36" s="14" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" t="s">
-        <v>13</v>
-      </c>
-      <c r="E27" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" t="s">
-        <v>15</v>
-      </c>
-      <c r="H27" t="s">
-        <v>15</v>
-      </c>
-      <c r="I27" t="s">
-        <v>11</v>
-      </c>
-      <c r="J27" t="s">
-        <v>12</v>
-      </c>
-      <c r="K27" t="s">
-        <v>13</v>
-      </c>
-      <c r="L27" t="s">
-        <v>12</v>
-      </c>
-      <c r="M27" t="s">
-        <v>14</v>
-      </c>
-      <c r="N27" t="s">
-        <v>15</v>
-      </c>
-      <c r="O27" t="s">
-        <v>15</v>
-      </c>
-      <c r="P27" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>12</v>
-      </c>
-      <c r="R27" t="s">
-        <v>13</v>
-      </c>
-      <c r="S27" t="s">
-        <v>12</v>
-      </c>
-      <c r="T27" t="s">
-        <v>14</v>
-      </c>
-      <c r="U27" t="s">
-        <v>15</v>
-      </c>
-      <c r="V27" t="s">
-        <v>15</v>
-      </c>
-      <c r="W27" t="s">
-        <v>11</v>
-      </c>
-      <c r="X27" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y27" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z27" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="1">
+      <c r="J36" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="K36" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="L36" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="M36" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="N36" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="O36" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="P36" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q36" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="R36" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="S36" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="T36" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="U36" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="V36" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="W36" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="X36" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y36" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z36" s="14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" s="18" customFormat="1" ht="19">
+      <c r="A37" s="24"/>
+      <c r="B37" s="18">
         <v>43234</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C37" s="18">
         <v>43235</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D37" s="18">
         <v>43236</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E37" s="18">
         <v>43237</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F37" s="18">
         <v>43238</v>
       </c>
-      <c r="G28" s="1">
-        <v>43239</v>
-      </c>
-      <c r="H28" s="1">
+      <c r="H37" s="18">
         <v>43240</v>
       </c>
-      <c r="I28" s="1">
+      <c r="I37" s="18">
         <v>43241</v>
       </c>
-      <c r="J28" s="1">
+      <c r="J37" s="18">
         <v>43242</v>
       </c>
-      <c r="K28" s="1">
+      <c r="K37" s="18">
         <v>43243</v>
       </c>
-      <c r="L28" s="1">
+      <c r="L37" s="18">
         <v>43244</v>
       </c>
-      <c r="M28" s="1">
+      <c r="M37" s="18">
         <v>43245</v>
       </c>
-      <c r="N28" s="1">
+      <c r="N37" s="18">
         <v>43246</v>
       </c>
-      <c r="O28" s="1">
+      <c r="O37" s="18">
         <v>43247</v>
       </c>
-      <c r="P28" s="1">
+      <c r="P37" s="18">
         <v>43248</v>
       </c>
-      <c r="Q28" s="1">
+      <c r="Q37" s="18">
         <v>43249</v>
       </c>
-      <c r="R28" s="1">
+      <c r="R37" s="18">
         <v>43250</v>
       </c>
-      <c r="S28" s="1">
+      <c r="S37" s="18">
         <v>43251</v>
       </c>
-      <c r="T28" s="1">
+      <c r="T37" s="18">
         <v>43252</v>
       </c>
-      <c r="U28" s="1">
+      <c r="U37" s="18">
         <v>43253</v>
       </c>
-      <c r="V28" s="1">
+      <c r="V37" s="18">
         <v>43254</v>
       </c>
-      <c r="W28" s="1">
+      <c r="W37" s="18">
         <v>43255</v>
       </c>
-      <c r="X28" s="1">
+      <c r="X37" s="18">
         <v>43256</v>
       </c>
-      <c r="Y28" s="1">
+      <c r="Y37" s="18">
         <v>43257</v>
       </c>
-      <c r="Z28" s="1">
+      <c r="Z37" s="18">
         <v>43258</v>
       </c>
     </row>
-    <row r="32" spans="1:26" s="2" customFormat="1" ht="216" x14ac:dyDescent="0.2">
-      <c r="E32" s="2" t="s">
+    <row r="38" spans="1:26" ht="19">
+      <c r="A38" s="19"/>
+    </row>
+    <row r="39" spans="1:26" ht="19">
+      <c r="A39" s="19"/>
+    </row>
+    <row r="40" spans="1:26" ht="19">
+      <c r="A40" s="19"/>
+    </row>
+    <row r="41" spans="1:26" s="17" customFormat="1" ht="214">
+      <c r="A41" s="25"/>
+      <c r="E41" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="Q32" s="2" t="s">
+      <c r="Q41" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="Y32" s="2" t="s">
+      <c r="Y41" s="17" t="s">
         <v>3</v>
       </c>
     </row>

--- a/Gantt Chart.xlsx
+++ b/Gantt Chart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10513"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sajanrajani/Library/Mobile Documents/com~apple~CloudDocs/Documents/Year 3 - Engineering/Waterscope/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A047128-80B8-424A-802F-A4ED9D9BF0D8}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA90DCDF-0EC2-6E4E-9D61-13E17ADB493E}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14460" xr2:uid="{B7718D2C-2DCC-FF44-9AD4-11ED5D5658DD}"/>
+    <workbookView xWindow="20" yWindow="980" windowWidth="25600" windowHeight="13940" xr2:uid="{B7718D2C-2DCC-FF44-9AD4-11ED5D5658DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="47">
   <si>
     <t>Day Number</t>
   </si>
@@ -63,9 +63,6 @@
     <t>Website Design</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>Ensure training programs done for respective skills</t>
   </si>
   <si>
@@ -96,9 +93,6 @@
     <t>Unassigned/All</t>
   </si>
   <si>
-    <t>?!</t>
-  </si>
-  <si>
     <t>Interim Presentation</t>
   </si>
   <si>
@@ -108,9 +102,6 @@
     <t>Project Management Plan + Gantt Chart</t>
   </si>
   <si>
-    <t>Overview, Context and Enginerring Approach</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ideas and Modelling to finalise project focus </t>
   </si>
   <si>
@@ -132,9 +123,6 @@
     <t xml:space="preserve">Write team members' personal and technical development </t>
   </si>
   <si>
-    <t>Prepare Interim Presentaons</t>
-  </si>
-  <si>
     <t>Statement on Unicef Principles/how our project fits</t>
   </si>
   <si>
@@ -150,12 +138,6 @@
     <t>Short look at Unicef Principles?</t>
   </si>
   <si>
-    <t>?!?</t>
-  </si>
-  <si>
-    <t>cry.</t>
-  </si>
-  <si>
     <t>Decide who is presenting what parts</t>
   </si>
   <si>
@@ -166,6 +148,24 @@
   </si>
   <si>
     <t>Project Presentation/Reports</t>
+  </si>
+  <si>
+    <t>Overview, Context and Engineering Approach</t>
+  </si>
+  <si>
+    <t>Prepare Interim Presentation</t>
+  </si>
+  <si>
+    <t>Meet again with Waterscope and collect filters</t>
+  </si>
+  <si>
+    <t>Prototype development timeline</t>
+  </si>
+  <si>
+    <t>Design development timeline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gantt Chart Update and Prokect Management </t>
   </si>
 </sst>
 </file>
@@ -175,7 +175,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -229,19 +229,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -270,6 +277,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF055A00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF1F"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -310,11 +329,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -327,25 +349,13 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -389,6 +399,24 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -396,6 +424,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF055A00"/>
+      <color rgb="FF00FF1F"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -704,11 +738,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00B0E456-EB46-4540-9E5C-44DAA5756766}">
-  <dimension ref="A1:Z41"/>
+  <dimension ref="A1:AF44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AA36" sqref="AA36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -719,581 +753,811 @@
     <col min="9" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="21">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:26" ht="21">
+      <c r="A1" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="2"/>
+      <c r="H1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="9" t="s">
+      <c r="I1" s="3"/>
+      <c r="J1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="4"/>
+      <c r="L1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="4"/>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="5"/>
+      <c r="N1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="5"/>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="6"/>
+      <c r="P1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="6"/>
-      <c r="O1" s="7" t="s">
+      <c r="Q1" s="25"/>
+      <c r="R1" s="24"/>
+    </row>
+    <row r="2" spans="1:26" s="11" customFormat="1" ht="19">
+      <c r="A2" s="19"/>
+      <c r="B2" s="11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" s="11" customFormat="1" ht="19">
+      <c r="A3" s="19"/>
+      <c r="B3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="P3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q3" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="R3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="S3" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="T3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="U3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="V3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="W3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="X3" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z3" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" s="15" customFormat="1" ht="20" thickBot="1">
+      <c r="A4" s="21"/>
+      <c r="B4" s="15">
+        <v>43234</v>
+      </c>
+      <c r="C4" s="15">
+        <v>43235</v>
+      </c>
+      <c r="D4" s="15">
+        <v>43236</v>
+      </c>
+      <c r="E4" s="15">
+        <v>43237</v>
+      </c>
+      <c r="F4" s="15">
+        <v>43238</v>
+      </c>
+      <c r="G4" s="15">
+        <v>43239</v>
+      </c>
+      <c r="H4" s="15">
+        <v>43240</v>
+      </c>
+      <c r="I4" s="15">
+        <v>43241</v>
+      </c>
+      <c r="J4" s="15">
+        <v>43242</v>
+      </c>
+      <c r="K4" s="15">
+        <v>43243</v>
+      </c>
+      <c r="L4" s="15">
+        <v>43244</v>
+      </c>
+      <c r="M4" s="15">
+        <v>43245</v>
+      </c>
+      <c r="N4" s="15">
+        <v>43246</v>
+      </c>
+      <c r="O4" s="15">
+        <v>43247</v>
+      </c>
+      <c r="P4" s="15">
+        <v>43248</v>
+      </c>
+      <c r="Q4" s="15">
+        <v>43249</v>
+      </c>
+      <c r="R4" s="15">
+        <v>43250</v>
+      </c>
+      <c r="S4" s="15">
+        <v>43251</v>
+      </c>
+      <c r="T4" s="15">
+        <v>43252</v>
+      </c>
+      <c r="U4" s="15">
+        <v>43253</v>
+      </c>
+      <c r="V4" s="15">
+        <v>43254</v>
+      </c>
+      <c r="W4" s="15">
+        <v>43255</v>
+      </c>
+      <c r="X4" s="15">
+        <v>43256</v>
+      </c>
+      <c r="Y4" s="15">
+        <v>43257</v>
+      </c>
+      <c r="Z4" s="15">
+        <v>43258</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" s="9" customFormat="1" ht="20" thickBot="1">
+      <c r="A5" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="26"/>
+    </row>
+    <row r="6" spans="1:26" s="9" customFormat="1" ht="20" thickBot="1">
+      <c r="A6" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+    </row>
+    <row r="7" spans="1:26" s="10" customFormat="1" ht="19">
+      <c r="A7" s="18"/>
+    </row>
+    <row r="8" spans="1:26">
+      <c r="A8" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="8"/>
+    </row>
+    <row r="9" spans="1:26">
+      <c r="A9" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="8"/>
+    </row>
+    <row r="10" spans="1:26">
+      <c r="A10" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="8"/>
+    </row>
+    <row r="11" spans="1:26">
+      <c r="A11" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="8"/>
+    </row>
+    <row r="12" spans="1:26">
+      <c r="A12" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="8"/>
+    </row>
+    <row r="13" spans="1:26">
+      <c r="A13" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="8"/>
+    </row>
+    <row r="14" spans="1:26">
+      <c r="A14" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="8"/>
+    </row>
+    <row r="15" spans="1:26">
+      <c r="A15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="D15" s="25"/>
+    </row>
+    <row r="16" spans="1:26">
+      <c r="A16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+    </row>
+    <row r="17" spans="1:26" s="8" customFormat="1" ht="20" thickBot="1">
+      <c r="A17" s="20"/>
+    </row>
+    <row r="18" spans="1:26" s="9" customFormat="1" ht="20" thickBot="1">
+      <c r="A18" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="8"/>
-    </row>
-    <row r="2" spans="1:21" ht="20" thickBot="1">
-      <c r="A2" s="19"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-    </row>
-    <row r="3" spans="1:21" s="11" customFormat="1" ht="20" thickBot="1">
-      <c r="A3" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="11" t="s">
+      <c r="D18" s="13"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="28"/>
+    </row>
+    <row r="19" spans="1:26" ht="19">
+      <c r="A19" s="16"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+    </row>
+    <row r="20" spans="1:26">
+      <c r="A20" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="25"/>
+    </row>
+    <row r="21" spans="1:26">
+      <c r="A21" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+    </row>
+    <row r="22" spans="1:26">
+      <c r="A22" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" s="11" customFormat="1" ht="20" thickBot="1">
-      <c r="A4" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-    </row>
-    <row r="5" spans="1:21" s="13" customFormat="1" ht="19">
-      <c r="A5" s="21"/>
-    </row>
-    <row r="6" spans="1:21">
-      <c r="A6" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9"/>
-    </row>
-    <row r="7" spans="1:21">
-      <c r="A7" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9"/>
-    </row>
-    <row r="8" spans="1:21">
-      <c r="A8" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="9"/>
-    </row>
-    <row r="9" spans="1:21">
-      <c r="A9" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="9"/>
-    </row>
-    <row r="10" spans="1:21">
-      <c r="A10" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="9"/>
-    </row>
-    <row r="11" spans="1:21">
-      <c r="A11" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="9"/>
-    </row>
-    <row r="12" spans="1:21">
-      <c r="A12" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="9"/>
-    </row>
-    <row r="13" spans="1:21">
-      <c r="A13" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="9"/>
-    </row>
-    <row r="14" spans="1:21">
-      <c r="A14" s="1" t="s">
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+    </row>
+    <row r="23" spans="1:26">
+      <c r="A23" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="D14" s="8"/>
-    </row>
-    <row r="15" spans="1:21">
-      <c r="A15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-    </row>
-    <row r="16" spans="1:21" s="9" customFormat="1" ht="20" thickBot="1">
-      <c r="A16" s="23"/>
-    </row>
-    <row r="17" spans="1:26" s="11" customFormat="1" ht="20" thickBot="1">
-      <c r="A17" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="16"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="16"/>
-    </row>
-    <row r="18" spans="1:26" ht="19">
-      <c r="A18" s="19"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-    </row>
-    <row r="19" spans="1:26">
-      <c r="A19" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="8"/>
-    </row>
-    <row r="20" spans="1:26">
-      <c r="A20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-    </row>
-    <row r="21" spans="1:26">
-      <c r="A21" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
-    </row>
-    <row r="22" spans="1:26">
-      <c r="A22" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-    </row>
-    <row r="23" spans="1:26">
-      <c r="A23" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="24"/>
+      <c r="O23" s="24"/>
+      <c r="P23" s="24"/>
+      <c r="Q23" s="24"/>
     </row>
     <row r="24" spans="1:26">
       <c r="A24" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="9"/>
-    </row>
-    <row r="25" spans="1:26" s="9" customFormat="1" ht="20" thickBot="1">
-      <c r="A25" s="23"/>
-    </row>
-    <row r="26" spans="1:26" s="11" customFormat="1" ht="20" thickBot="1">
-      <c r="A26" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q26" s="12"/>
-      <c r="R26" s="12"/>
-      <c r="S26" s="12"/>
-      <c r="T26" s="12"/>
-      <c r="U26" s="12"/>
-      <c r="V26" s="12"/>
-      <c r="W26" s="12"/>
-      <c r="X26" s="12"/>
-      <c r="Y26" s="12"/>
-      <c r="Z26" s="16"/>
-    </row>
-    <row r="27" spans="1:26" ht="19">
-      <c r="A27" s="19"/>
+        <v>11</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="25"/>
+    </row>
+    <row r="25" spans="1:26">
+      <c r="A25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="25"/>
+      <c r="O25" s="25"/>
+      <c r="P25" s="25"/>
+      <c r="Q25" s="24"/>
+    </row>
+    <row r="26" spans="1:26">
+      <c r="A26" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+    </row>
+    <row r="27" spans="1:26">
+      <c r="A27" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
     </row>
     <row r="28" spans="1:26">
-      <c r="A28" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q28" s="8"/>
-      <c r="R28" s="8"/>
+      <c r="A28" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
     </row>
     <row r="29" spans="1:26">
       <c r="A29" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q29" s="8"/>
-      <c r="R29" s="8"/>
-      <c r="S29" s="8"/>
-      <c r="T29" s="8"/>
-      <c r="U29" s="8"/>
-      <c r="V29" s="8"/>
-      <c r="W29" s="8"/>
-      <c r="X29" s="8"/>
-      <c r="Y29" s="8"/>
+        <v>46</v>
+      </c>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
     </row>
     <row r="30" spans="1:26">
       <c r="A30" s="1" t="s">
-        <v>45</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
       <c r="Q30" s="8"/>
-      <c r="R30" s="8"/>
-      <c r="S30" s="8"/>
-      <c r="T30" s="8"/>
-      <c r="U30" s="8"/>
-      <c r="V30" s="8"/>
-      <c r="W30" s="8"/>
-      <c r="X30" s="8"/>
-      <c r="Y30" s="8"/>
-    </row>
-    <row r="31" spans="1:26">
-      <c r="A31" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="Q31" s="8"/>
-      <c r="R31" s="8"/>
-      <c r="S31" s="8"/>
-      <c r="T31" s="8"/>
-      <c r="U31" s="8"/>
-      <c r="V31" s="8"/>
-      <c r="W31" s="8"/>
-      <c r="X31" s="8"/>
-      <c r="Y31" s="8"/>
-    </row>
-    <row r="32" spans="1:26">
-      <c r="A32" s="1" t="s">
+    </row>
+    <row r="31" spans="1:26" s="8" customFormat="1" ht="20" thickBot="1">
+      <c r="A31" s="20"/>
+    </row>
+    <row r="32" spans="1:26" s="9" customFormat="1" ht="20" thickBot="1">
+      <c r="A32" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q32" s="26"/>
+      <c r="R32" s="26"/>
+      <c r="S32" s="26"/>
+      <c r="T32" s="26"/>
+      <c r="U32" s="26"/>
+      <c r="V32" s="26"/>
+      <c r="W32" s="26"/>
+      <c r="X32" s="26"/>
+      <c r="Y32" s="26"/>
+      <c r="Z32" s="13"/>
+    </row>
+    <row r="33" spans="1:32" ht="19">
+      <c r="A33" s="16"/>
+    </row>
+    <row r="34" spans="1:32">
+      <c r="A34" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q34" s="25"/>
+      <c r="R34" s="25"/>
+    </row>
+    <row r="35" spans="1:32">
+      <c r="A35" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="Q32" s="8"/>
-      <c r="R32" s="8"/>
-      <c r="S32" s="8"/>
-      <c r="T32" s="8"/>
-      <c r="U32" s="8"/>
-      <c r="V32" s="8"/>
-      <c r="W32" s="8"/>
-      <c r="X32" s="8"/>
-      <c r="Y32" s="8"/>
-    </row>
-    <row r="33" spans="1:26">
-      <c r="A33" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q33" s="8"/>
-      <c r="R33" s="8"/>
-      <c r="S33" s="8"/>
-      <c r="T33" s="8"/>
-      <c r="U33" s="8"/>
-      <c r="V33" s="8"/>
-      <c r="W33" s="8"/>
-      <c r="X33" s="8"/>
-      <c r="Y33" s="8"/>
-    </row>
-    <row r="34" spans="1:26">
-      <c r="A34" s="1" t="s">
+      <c r="Q35" s="25"/>
+      <c r="R35" s="25"/>
+      <c r="S35" s="25"/>
+      <c r="T35" s="25"/>
+      <c r="U35" s="25"/>
+      <c r="V35" s="25"/>
+      <c r="W35" s="25"/>
+      <c r="X35" s="25"/>
+      <c r="Y35" s="25"/>
+    </row>
+    <row r="36" spans="1:32">
+      <c r="A36" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="Q34" s="8"/>
-      <c r="R34" s="8"/>
-      <c r="S34" s="8"/>
-      <c r="T34" s="8"/>
-      <c r="U34" s="8"/>
-      <c r="V34" s="8"/>
-      <c r="W34" s="8"/>
-      <c r="X34" s="8"/>
-      <c r="Y34" s="8"/>
-    </row>
-    <row r="35" spans="1:26" s="14" customFormat="1" ht="19">
-      <c r="A35" s="22"/>
-      <c r="B35" s="14" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:26" s="14" customFormat="1" ht="19">
-      <c r="A36" s="22"/>
-      <c r="B36" s="14" t="s">
+      <c r="Q36" s="25"/>
+      <c r="R36" s="25"/>
+      <c r="S36" s="25"/>
+      <c r="T36" s="25"/>
+      <c r="U36" s="25"/>
+      <c r="V36" s="25"/>
+      <c r="W36" s="25"/>
+      <c r="X36" s="25"/>
+      <c r="Y36" s="25"/>
+    </row>
+    <row r="37" spans="1:32">
+      <c r="A37" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="Q37" s="25"/>
+      <c r="R37" s="25"/>
+      <c r="S37" s="25"/>
+      <c r="T37" s="25"/>
+      <c r="U37" s="25"/>
+      <c r="V37" s="25"/>
+      <c r="W37" s="25"/>
+      <c r="X37" s="25"/>
+      <c r="Y37" s="25"/>
+    </row>
+    <row r="38" spans="1:32">
+      <c r="A38" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="Q38" s="25"/>
+      <c r="R38" s="25"/>
+      <c r="S38" s="25"/>
+      <c r="T38" s="25"/>
+      <c r="U38" s="25"/>
+      <c r="V38" s="25"/>
+      <c r="W38" s="25"/>
+      <c r="X38" s="25"/>
+      <c r="Y38" s="25"/>
+    </row>
+    <row r="39" spans="1:32">
+      <c r="A39" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q39" s="25"/>
+      <c r="R39" s="25"/>
+      <c r="S39" s="25"/>
+      <c r="T39" s="25"/>
+      <c r="U39" s="25"/>
+      <c r="V39" s="25"/>
+      <c r="W39" s="25"/>
+      <c r="X39" s="25"/>
+      <c r="Y39" s="25"/>
+    </row>
+    <row r="40" spans="1:32">
+      <c r="A40" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q40" s="25"/>
+      <c r="R40" s="25"/>
+      <c r="S40" s="25"/>
+      <c r="T40" s="25"/>
+      <c r="U40" s="25"/>
+      <c r="V40" s="25"/>
+      <c r="W40" s="25"/>
+      <c r="X40" s="25"/>
+      <c r="Y40" s="25"/>
+    </row>
+    <row r="41" spans="1:32">
+      <c r="A41" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q41" s="25"/>
+      <c r="R41" s="25"/>
+      <c r="S41" s="25"/>
+      <c r="T41" s="25"/>
+      <c r="U41" s="25"/>
+      <c r="V41" s="25"/>
+      <c r="W41" s="25"/>
+      <c r="X41" s="25"/>
+      <c r="Y41" s="25"/>
+    </row>
+    <row r="42" spans="1:32" s="11" customFormat="1" ht="19">
+      <c r="A42" s="19"/>
+      <c r="B42" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C36" s="14" t="s">
+      <c r="C42" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D36" s="14" t="s">
+      <c r="D42" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E36" s="14" t="s">
+      <c r="E42" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F36" s="14" t="s">
+      <c r="F42" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H36" s="14" t="s">
+      <c r="G42" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I36" s="14" t="s">
+      <c r="H42" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I42" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J36" s="14" t="s">
+      <c r="J42" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="K36" s="14" t="s">
+      <c r="K42" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="L36" s="14" t="s">
+      <c r="L42" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="M36" s="14" t="s">
+      <c r="M42" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="N36" s="14" t="s">
+      <c r="N42" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="O36" s="14" t="s">
+      <c r="O42" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="P36" s="14" t="s">
+      <c r="P42" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="Q36" s="14" t="s">
+      <c r="Q42" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="R36" s="14" t="s">
+      <c r="R42" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="S36" s="14" t="s">
+      <c r="S42" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="T36" s="14" t="s">
+      <c r="T42" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="U36" s="14" t="s">
+      <c r="U42" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="V36" s="14" t="s">
+      <c r="V42" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="W36" s="14" t="s">
+      <c r="W42" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="X36" s="14" t="s">
+      <c r="X42" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="Y36" s="14" t="s">
+      <c r="Y42" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="Z36" s="14" t="s">
+      <c r="Z42" s="11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:26" s="18" customFormat="1" ht="19">
-      <c r="A37" s="24"/>
-      <c r="B37" s="18">
+    <row r="43" spans="1:32" s="15" customFormat="1" ht="19">
+      <c r="A43" s="21"/>
+      <c r="B43" s="15">
         <v>43234</v>
       </c>
-      <c r="C37" s="18">
+      <c r="C43" s="15">
         <v>43235</v>
       </c>
-      <c r="D37" s="18">
+      <c r="D43" s="15">
         <v>43236</v>
       </c>
-      <c r="E37" s="18">
+      <c r="E43" s="15">
         <v>43237</v>
       </c>
-      <c r="F37" s="18">
+      <c r="F43" s="15">
         <v>43238</v>
       </c>
-      <c r="H37" s="18">
+      <c r="G43" s="15">
+        <v>43239</v>
+      </c>
+      <c r="H43" s="15">
         <v>43240</v>
       </c>
-      <c r="I37" s="18">
+      <c r="I43" s="15">
         <v>43241</v>
       </c>
-      <c r="J37" s="18">
+      <c r="J43" s="15">
         <v>43242</v>
       </c>
-      <c r="K37" s="18">
+      <c r="K43" s="15">
         <v>43243</v>
       </c>
-      <c r="L37" s="18">
+      <c r="L43" s="15">
         <v>43244</v>
       </c>
-      <c r="M37" s="18">
+      <c r="M43" s="15">
         <v>43245</v>
       </c>
-      <c r="N37" s="18">
+      <c r="N43" s="15">
         <v>43246</v>
       </c>
-      <c r="O37" s="18">
+      <c r="O43" s="15">
         <v>43247</v>
       </c>
-      <c r="P37" s="18">
+      <c r="P43" s="15">
         <v>43248</v>
       </c>
-      <c r="Q37" s="18">
+      <c r="Q43" s="15">
         <v>43249</v>
       </c>
-      <c r="R37" s="18">
+      <c r="R43" s="15">
         <v>43250</v>
       </c>
-      <c r="S37" s="18">
+      <c r="S43" s="15">
         <v>43251</v>
       </c>
-      <c r="T37" s="18">
+      <c r="T43" s="15">
         <v>43252</v>
       </c>
-      <c r="U37" s="18">
+      <c r="U43" s="15">
         <v>43253</v>
       </c>
-      <c r="V37" s="18">
+      <c r="V43" s="15">
         <v>43254</v>
       </c>
-      <c r="W37" s="18">
+      <c r="W43" s="15">
         <v>43255</v>
       </c>
-      <c r="X37" s="18">
+      <c r="X43" s="15">
         <v>43256</v>
       </c>
-      <c r="Y37" s="18">
+      <c r="Y43" s="15">
         <v>43257</v>
       </c>
-      <c r="Z37" s="18">
+      <c r="Z43" s="15">
         <v>43258</v>
       </c>
     </row>
-    <row r="38" spans="1:26" ht="19">
-      <c r="A38" s="19"/>
-    </row>
-    <row r="39" spans="1:26" ht="19">
-      <c r="A39" s="19"/>
-    </row>
-    <row r="40" spans="1:26" ht="19">
-      <c r="A40" s="19"/>
-    </row>
-    <row r="41" spans="1:26" s="17" customFormat="1" ht="214">
-      <c r="A41" s="25"/>
-      <c r="E41" s="17" t="s">
+    <row r="44" spans="1:32" s="14" customFormat="1" ht="221">
+      <c r="A44" s="22"/>
+      <c r="E44" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="Q41" s="17" t="s">
+      <c r="Q44" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="Y41" s="17" t="s">
+      <c r="Y44" s="14" t="s">
         <v>3</v>
       </c>
+      <c r="AF44" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Gantt Chart.xlsx
+++ b/Gantt Chart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sajanrajani/Library/Mobile Documents/com~apple~CloudDocs/Documents/Year 3 - Engineering/Waterscope/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA90DCDF-0EC2-6E4E-9D61-13E17ADB493E}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48B877FB-3C03-CE49-ADF1-43E45C2B8D21}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="980" windowWidth="25600" windowHeight="13940" xr2:uid="{B7718D2C-2DCC-FF44-9AD4-11ED5D5658DD}"/>
+    <workbookView xWindow="0" yWindow="980" windowWidth="25600" windowHeight="13940" xr2:uid="{B7718D2C-2DCC-FF44-9AD4-11ED5D5658DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -175,7 +175,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -242,8 +242,15 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -292,6 +299,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="lightVertical">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor rgb="FFFFC000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -329,7 +342,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -416,6 +429,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -740,9 +759,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00B0E456-EB46-4540-9E5C-44DAA5756766}">
   <dimension ref="A1:AF44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AA36" sqref="AA36"/>
+    <sheetView tabSelected="1" zoomScale="49" zoomScaleNormal="49" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1073,7 +1092,19 @@
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
-      <c r="E20" s="25"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
     </row>
     <row r="21" spans="1:26">
       <c r="A21" s="12" t="s">
@@ -1129,15 +1160,19 @@
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="25"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="31"/>
+      <c r="O24" s="31"/>
+      <c r="P24" s="31"/>
+      <c r="Q24" s="31"/>
     </row>
     <row r="25" spans="1:26">
       <c r="A25" s="1" t="s">
@@ -1175,11 +1210,11 @@
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="8"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
+      <c r="M26" s="30"/>
+      <c r="N26" s="30"/>
+      <c r="O26" s="30"/>
+      <c r="P26" s="30"/>
+      <c r="Q26" s="30"/>
     </row>
     <row r="27" spans="1:26">
       <c r="A27" s="1" t="s">
@@ -1546,7 +1581,7 @@
         <v>43258</v>
       </c>
     </row>
-    <row r="44" spans="1:32" s="14" customFormat="1" ht="221">
+    <row r="44" spans="1:32" s="14" customFormat="1" ht="214">
       <c r="A44" s="22"/>
       <c r="E44" s="14" t="s">
         <v>1</v>
